--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sengl\Desktop\eiwg_webpage\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC65157-717C-4FCA-ABCC-5184C78D636A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{17130F81-5BF8-42BD-9123-0B5FBBD68513}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="20715" windowHeight="13875"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -425,8 +419,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,7 +461,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -492,26 +486,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B341FAF4-A4BA-4C23-AFA4-37DEBCD9376A}" name="Tabelle1" displayName="Tabelle1" ref="A1:N67" totalsRowShown="0">
-  <autoFilter ref="A1:N67" xr:uid="{B341FAF4-A4BA-4C23-AFA4-37DEBCD9376A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:N67" totalsRowShown="0">
+  <autoFilter ref="A1:N67"/>
+  <sortState ref="A2:M63">
     <sortCondition ref="B1:B63"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{D08EB286-1975-4440-9BD9-194C9243149F}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{0255C489-D014-4274-8CB1-E4292220887D}" name="Company"/>
-    <tableColumn id="4" xr3:uid="{0F16DAA8-9C6C-4829-8042-E0E7228903F3}" name="Function"/>
-    <tableColumn id="5" xr3:uid="{286CCCF0-16E8-4E77-A9A3-A45B4911B2BB}" name="Lead" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{681642AA-A349-4C63-935B-8DE7EC58D0D3}" name="Type"/>
-    <tableColumn id="6" xr3:uid="{C61B0CC2-BE8D-4C61-B157-DBFABE9B8156}" name="Contact to"/>
-    <tableColumn id="7" xr3:uid="{745E10A6-79E0-4F5A-97B5-B9615B334A62}" name="Training"/>
-    <tableColumn id="8" xr3:uid="{1713FCF7-7F16-4EE7-951B-135DBE834827}" name="Estimation"/>
-    <tableColumn id="9" xr3:uid="{A6C0453F-11FB-4ACC-AB43-FFC7D6E963B7}" name="Reporting"/>
-    <tableColumn id="10" xr3:uid="{F4B23871-8281-40EC-9A17-B958306997F5}" name="EarlyPhase"/>
-    <tableColumn id="14" xr3:uid="{702C6A9C-BDB9-4B75-9BCF-F61453B4174B}" name="LateStage"/>
-    <tableColumn id="11" xr3:uid="{454BFB0F-D387-4A8A-A3DE-B73C1135FC0F}" name="NonInferiority"/>
-    <tableColumn id="12" xr3:uid="{C9E328C9-1AB1-4E70-B567-39E431ECD5AF}" name="Communications"/>
-    <tableColumn id="15" xr3:uid="{FFECF483-F5B5-481F-89AD-788FD7D1B97C}" name="IntercurrentEvent"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="3" name="Company"/>
+    <tableColumn id="4" name="Function"/>
+    <tableColumn id="5" name="Lead" dataDxfId="0"/>
+    <tableColumn id="13" name="Type"/>
+    <tableColumn id="6" name="Contact to"/>
+    <tableColumn id="7" name="Training"/>
+    <tableColumn id="8" name="Estimation"/>
+    <tableColumn id="9" name="Reporting"/>
+    <tableColumn id="10" name="EarlyPhase"/>
+    <tableColumn id="14" name="LateStage"/>
+    <tableColumn id="11" name="NonInferiority"/>
+    <tableColumn id="12" name="Communications"/>
+    <tableColumn id="15" name="IntercurrentEvent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -612,7 +606,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -806,39 +800,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69F38D8-CC18-441C-83B7-ACFF18261279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-    <col min="10" max="11" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53125" customWidth="1"/>
+    <col min="9" max="9" width="11.796875" customWidth="1"/>
+    <col min="10" max="11" width="13.19921875" customWidth="1"/>
+    <col min="12" max="12" width="16.796875" customWidth="1"/>
     <col min="13" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +876,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -896,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -919,7 +913,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -948,7 +942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -971,7 +965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -997,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1028,7 +1022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1042,7 +1036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1065,7 +1059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1079,7 +1073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1096,7 +1090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1110,7 +1104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1130,7 +1124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1147,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1176,7 +1170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1190,7 +1184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1207,7 +1201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1224,7 +1218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1241,7 +1235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1255,7 +1249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1272,7 +1266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1286,7 +1280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1303,7 +1297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1317,7 +1311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1343,7 +1337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1360,7 +1354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1377,7 +1371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1391,7 +1385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1408,7 +1402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -1422,7 +1416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1442,7 +1436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1456,7 +1450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -1473,7 +1467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -1487,7 +1481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -1513,7 +1507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -1527,7 +1521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -1547,7 +1541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -1567,7 +1561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -1599,7 +1593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -1616,7 +1610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -1633,7 +1627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -1650,7 +1644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -1667,7 +1661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -1681,7 +1675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -1695,7 +1689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -1718,7 +1712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -1735,7 +1729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -1758,7 +1752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -1775,7 +1769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -1792,7 +1786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1809,7 +1803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -1826,7 +1820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -1843,7 +1837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -1860,7 +1854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -1877,7 +1871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -1894,7 +1888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -1908,7 +1902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -1928,7 +1922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -1942,7 +1936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -1965,7 +1959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -1979,7 +1973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>118</v>
       </c>
@@ -2005,7 +1999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -2019,12 +2013,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -2042,7 +2036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -2059,7 +2053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -2075,15 +2069,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{3C812578-DD1B-49BB-A242-5263405B1626}"/>
-    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{0C1B3D6B-7EB6-44A6-AFDA-04CAAF92CB60}"/>
-    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{515BE35B-5A85-48BC-BC16-BAD38381277F}"/>
-    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{6406BE5F-4FA6-4BA4-8B37-DFFD1761F32D}"/>
-    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{53C82E9C-134D-4456-B765-B8C1AC0BBD26}"/>
-    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{3AEF5FB4-2147-49FA-9471-58EC544AD4C2}"/>
-    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{1DCE2109-1515-4931-B35F-F18BE5A84BD4}"/>
-    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{3B6A482F-1404-4152-85E5-A4AED8123625}"/>
-    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{53CA39C7-9313-4E5B-B071-0C95848570CE}"/>
+    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com"/>
+    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com"/>
+    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com"/>
+    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com"/>
+    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu"/>
+    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com"/>
+    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com"/>
+    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com"/>
+    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId10"/>
@@ -2094,6 +2088,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c214334a35d04babb002cae86a5d4534">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d936c9f92a69a3898e11e942e5a3cfa5" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -2237,22 +2246,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A80BF24A-4978-4F18-B8A8-A4B8F8FB685A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2268,21 +2279,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sengl\Desktop\eiwg_webpage\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5005D097-9CE2-40F1-9A70-1B4CA5F59850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="20715" windowHeight="13875"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -80,9 +75,6 @@
     <t>Astellas</t>
   </si>
   <si>
-    <t>HEOR expert</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -414,13 +406,43 @@
   </si>
   <si>
     <t>NonInferiority</t>
+  </si>
+  <si>
+    <t>Barbara Glocker</t>
+  </si>
+  <si>
+    <t>Medical Writing</t>
+  </si>
+  <si>
+    <t>Daniel Baratton</t>
+  </si>
+  <si>
+    <t>Suvi Rajamaki</t>
+  </si>
+  <si>
+    <t>Edith Küpper</t>
+  </si>
+  <si>
+    <t>Staburo</t>
+  </si>
+  <si>
+    <t>Program Manager</t>
+  </si>
+  <si>
+    <t>Maarten van Dijk</t>
+  </si>
+  <si>
+    <t>Gabriele Bleckert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francesca Callegari </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,12 +478,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -486,26 +509,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:N67" totalsRowShown="0">
-  <autoFilter ref="A1:N67"/>
-  <sortState ref="A2:M63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:N74" totalsRowShown="0">
+  <autoFilter ref="A1:N74" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M63">
     <sortCondition ref="B1:B63"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="3" name="Company"/>
-    <tableColumn id="4" name="Function"/>
-    <tableColumn id="5" name="Lead" dataDxfId="0"/>
-    <tableColumn id="13" name="Type"/>
-    <tableColumn id="6" name="Contact to"/>
-    <tableColumn id="7" name="Training"/>
-    <tableColumn id="8" name="Estimation"/>
-    <tableColumn id="9" name="Reporting"/>
-    <tableColumn id="10" name="EarlyPhase"/>
-    <tableColumn id="14" name="LateStage"/>
-    <tableColumn id="11" name="NonInferiority"/>
-    <tableColumn id="12" name="Communications"/>
-    <tableColumn id="15" name="IntercurrentEvent"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Company"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Function"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lead" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Type"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Contact to"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Training"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Estimation"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reporting"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="EarlyPhase"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="LateStage"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NonInferiority"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Communications"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IntercurrentEvent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -554,7 +577,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -606,7 +629,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -800,39 +823,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.53125" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" customWidth="1"/>
-    <col min="10" max="11" width="13.19921875" customWidth="1"/>
-    <col min="12" max="12" width="16.796875" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="11" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" customWidth="1"/>
     <col min="13" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,22 +884,22 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" t="s">
         <v>126</v>
-      </c>
-      <c r="L1" t="s">
-        <v>127</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -890,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -898,79 +921,79 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -982,66 +1005,72 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1053,270 +1082,273 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1328,413 +1360,413 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="M26" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
+      <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
         <v>72</v>
       </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="N32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>73</v>
       </c>
-      <c r="N32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>76</v>
       </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>78</v>
       </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>80</v>
       </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>82</v>
       </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>84</v>
       </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>85</v>
       </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>86</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
         <v>87</v>
       </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>88</v>
       </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>89</v>
       </c>
-      <c r="B41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>90</v>
       </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>91</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>92</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>93</v>
       </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>94</v>
       </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>95</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>96</v>
       </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>97</v>
       </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" t="s">
-        <v>17</v>
-      </c>
-      <c r="N47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
@@ -1746,276 +1778,276 @@
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>26</v>
-      </c>
-      <c r="L51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>103</v>
       </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>104</v>
       </c>
-      <c r="B53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>105</v>
       </c>
-      <c r="B54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>26</v>
-      </c>
-      <c r="L54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>106</v>
       </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>107</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>108</v>
       </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" t="s">
-        <v>26</v>
-      </c>
-      <c r="L56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>109</v>
       </c>
-      <c r="B57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" t="s">
-        <v>26</v>
-      </c>
-      <c r="L57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
         <v>110</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>111</v>
       </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>112</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>113</v>
       </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" t="s">
-        <v>17</v>
-      </c>
-      <c r="N59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>114</v>
       </c>
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>115</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>116</v>
       </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
         <v>125</v>
       </c>
-      <c r="E61" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" t="s">
-        <v>17</v>
-      </c>
-      <c r="N61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" t="s">
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>118</v>
       </c>
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" t="s">
-        <v>17</v>
-      </c>
-      <c r="M63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>119</v>
-      </c>
-      <c r="B64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" t="s">
-        <v>120</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -2024,41 +2056,41 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
         <v>121</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="N66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>122</v>
       </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="N66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" t="s">
-        <v>123</v>
-      </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2066,18 +2098,165 @@
       <c r="E67" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D81" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com"/>
-    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com"/>
-    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com"/>
-    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com"/>
-    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu"/>
-    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com"/>
-    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com"/>
-    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com"/>
-    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com"/>
+    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId10"/>
@@ -2088,21 +2267,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c214334a35d04babb002cae86a5d4534">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d936c9f92a69a3898e11e942e5a3cfa5" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -2246,24 +2410,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A80BF24A-4978-4F18-B8A8-A4B8F8FB685A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2279,4 +2441,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB65CB0E-90C4-493E-A857-B297CD72175F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20715" windowHeight="13875"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -453,13 +459,16 @@
   </si>
   <si>
     <t xml:space="preserve">Francesca Callegari </t>
+  </si>
+  <si>
+    <t>Retired</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,8 +520,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -537,23 +546,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:N78" totalsRowShown="0">
-  <autoFilter ref="A1:N78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:N78" totalsRowShown="0">
+  <autoFilter ref="A1:N78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="3" name="Company"/>
-    <tableColumn id="4" name="Function"/>
-    <tableColumn id="5" name="Lead" dataDxfId="0"/>
-    <tableColumn id="13" name="Type"/>
-    <tableColumn id="6" name="Contact to"/>
-    <tableColumn id="7" name="Training"/>
-    <tableColumn id="8" name="Estimation"/>
-    <tableColumn id="9" name="Reporting"/>
-    <tableColumn id="10" name="EarlyPhase"/>
-    <tableColumn id="14" name="LateStage"/>
-    <tableColumn id="11" name="NonInferiority"/>
-    <tableColumn id="12" name="Communications"/>
-    <tableColumn id="15" name="IntercurrentEvent"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Company"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Function"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lead" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Type"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Contact to"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Training"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Estimation"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reporting"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="EarlyPhase"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="LateStage"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NonInferiority"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Communications"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IntercurrentEvent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -848,39 +857,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" customWidth="1"/>
-    <col min="10" max="11" width="13.1328125" customWidth="1"/>
-    <col min="12" max="12" width="16.86328125" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" customWidth="1"/>
     <col min="13" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -938,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -958,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -984,7 +993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1007,7 +1016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1138,7 +1147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1246,7 +1255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1280,7 +1289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1294,7 +1303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1311,7 +1320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1393,7 +1402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1406,11 +1415,8 @@
       <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1441,7 +1447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -1546,7 +1552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -1573,14 +1579,11 @@
       <c r="E38" t="s">
         <v>17</v>
       </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
       <c r="I38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -1645,11 +1648,8 @@
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1">
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -1694,13 +1694,10 @@
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -1714,7 +1711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -1728,7 +1725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -1751,7 +1748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1">
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -1765,7 +1762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -1785,7 +1782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -1799,7 +1796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -1816,7 +1813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -1830,7 +1827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -1847,7 +1844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -1864,7 +1861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -1877,11 +1874,8 @@
       <c r="E55" t="s">
         <v>29</v>
       </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -1898,7 +1892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -1915,7 +1909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -1929,7 +1923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -1949,7 +1943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -1963,7 +1957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -1989,7 +1983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -2003,7 +1997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -2025,11 +2019,8 @@
       <c r="K63" t="s">
         <v>20</v>
       </c>
-      <c r="M63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -2046,7 +2037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -2069,7 +2060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -2089,7 +2080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -2102,8 +2093,11 @@
       <c r="E67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>127</v>
       </c>
@@ -2120,7 +2114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>128</v>
       </c>
@@ -2137,7 +2131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2154,7 +2148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2168,7 +2162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -2185,7 +2179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -2202,7 +2196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -2219,7 +2213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -2236,7 +2230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>138</v>
       </c>
@@ -2253,7 +2247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>139</v>
       </c>
@@ -2270,7 +2264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -2289,15 +2283,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com"/>
-    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com"/>
-    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com"/>
-    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com"/>
-    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu"/>
-    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com"/>
-    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com"/>
-    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com"/>
-    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com"/>
+    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{7DAD9BD4-AD67-4DA3-98A2-C32A7135234D}"/>
+    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{A6F599B3-6259-4356-93EF-33065827937B}"/>
+    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{7A1A4CB0-3F51-4B94-9AD3-F550333051A5}"/>
+    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{597ED5F1-624B-41E2-B895-E66C3860EFC7}"/>
+    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{CC9E0AEE-FDEB-4C2D-BF74-57B43E04355A}"/>
+    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{FCB9521F-8C80-4EA2-BD70-B0A229DCF2DE}"/>
+    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{9D2CD386-AAF4-4664-A354-70E40EE8CBFD}"/>
+    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{7BC3E63D-F2A8-486F-8C13-67AE42924CD7}"/>
+    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{EBFB1851-5D89-4B98-9A33-1318C5B07797}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId10"/>
@@ -2308,6 +2302,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="21585f8105577c55a14177137b0f487c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a739419b1432b2a493df12220e235f53" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -2451,22 +2460,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44DC42-D40D-4161-B416-680814B33C76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2482,21 +2493,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB65CB0E-90C4-493E-A857-B297CD72175F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF55BE38-EDFE-4DE6-A9FD-90E1AB7F93E5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -137,9 +137,6 @@
     <t>James Bell</t>
   </si>
   <si>
-    <t>BI</t>
-  </si>
-  <si>
     <t>Barbara Rosettani</t>
   </si>
   <si>
@@ -462,6 +459,15 @@
   </si>
   <si>
     <t>Retired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elderbrook </t>
+  </si>
+  <si>
+    <t>Marian Mitroiu</t>
+  </si>
+  <si>
+    <t>Biogen</t>
   </si>
 </sst>
 </file>
@@ -545,24 +551,28 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:N78" totalsRowShown="0">
-  <autoFilter ref="A1:N78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D60003CB-F279-4723-A52E-E2985DAFD393}" name="Tabelle13" displayName="Tabelle13" ref="A1:N79" totalsRowShown="0">
+  <autoFilter ref="A1:N79" xr:uid="{D60003CB-F279-4723-A52E-E2985DAFD393}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Company"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Function"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lead" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Type"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Contact to"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Training"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Estimation"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reporting"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="EarlyPhase"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="LateStage"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="NonInferiority"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Communications"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IntercurrentEvent"/>
+    <tableColumn id="1" xr3:uid="{5FB58078-93D4-43EE-A13C-657950C4E49F}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{195F76C5-F3DD-4BE2-9A14-556CF0E309AB}" name="Company"/>
+    <tableColumn id="4" xr3:uid="{D8460CBD-F4FD-497D-A793-C209B4B99C56}" name="Function"/>
+    <tableColumn id="5" xr3:uid="{FC76AA65-51E3-4E4D-9E9C-AA73D81C7FBB}" name="Lead" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{E97DAE4F-E2F0-4E3E-81D7-FEAB3CEEC6A9}" name="Type"/>
+    <tableColumn id="6" xr3:uid="{D4A2A5BD-0773-4EF6-B2EB-B31ADFA145D3}" name="Contact to"/>
+    <tableColumn id="7" xr3:uid="{82BFEF13-9C8C-48D7-BC85-AE1039FD337E}" name="Training"/>
+    <tableColumn id="8" xr3:uid="{64EE163A-3B4D-4D45-A3F5-DA847A089D6B}" name="Estimation"/>
+    <tableColumn id="9" xr3:uid="{A116E572-7DB4-4A56-9DF9-03F8A69186A1}" name="Reporting"/>
+    <tableColumn id="10" xr3:uid="{8BBA022B-ED3E-4FB9-8F86-531B2275B820}" name="EarlyPhase"/>
+    <tableColumn id="14" xr3:uid="{8479BBDC-E138-411F-9229-2D282422952B}" name="LateStage"/>
+    <tableColumn id="11" xr3:uid="{8ADFEBC8-482A-47B1-BB8A-6440A9B68850}" name="NonInferiority"/>
+    <tableColumn id="12" xr3:uid="{4AF79DC2-55DA-4D3B-8E6A-EC9B0542FB89}" name="Communications"/>
+    <tableColumn id="15" xr3:uid="{C18FE1C0-28F7-4B49-B3B2-EE94202BCEF8}" name="IntercurrentEvent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -868,10 +878,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N78"/>
+    <sheetView tabSelected="1" topLeftCell="D65" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -983,9 +993,6 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" t="s">
         <v>20</v>
       </c>
@@ -1009,6 +1016,9 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" t="s">
         <v>20</v>
       </c>
@@ -1095,7 +1105,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1115,10 +1125,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1132,10 +1142,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1149,13 +1159,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1163,10 +1173,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1180,10 +1190,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1197,10 +1207,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1226,13 +1236,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -1240,13 +1250,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -1257,10 +1267,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1274,10 +1284,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1291,10 +1301,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1305,10 +1315,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1322,10 +1332,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1336,13 +1346,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
@@ -1350,10 +1360,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1364,10 +1374,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
         <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1379,7 +1389,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M26" t="s">
         <v>20</v>
@@ -1390,10 +1400,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1404,13 +1414,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
         <v>66</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
@@ -1418,10 +1428,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1432,13 +1442,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -1449,10 +1459,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
         <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>73</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1463,19 +1473,19 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>76</v>
       </c>
       <c r="N32" t="s">
         <v>20</v>
@@ -1483,10 +1493,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
         <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>78</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1497,10 +1507,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1514,10 +1524,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
         <v>80</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1528,10 +1538,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>83</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1554,10 +1564,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" t="s">
-        <v>85</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1568,10 +1578,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
         <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1585,10 +1595,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1605,10 +1615,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" t="s">
-        <v>90</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1620,7 +1630,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -1637,13 +1647,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -1651,10 +1661,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1668,10 +1678,10 @@
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1685,27 +1695,27 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
         <v>17</v>
@@ -1713,13 +1723,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
         <v>98</v>
       </c>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
         <v>17</v>
@@ -1727,10 +1737,10 @@
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1750,13 +1760,13 @@
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
         <v>29</v>
@@ -1764,10 +1774,10 @@
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -1784,13 +1794,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
         <v>29</v>
@@ -1798,10 +1808,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -1815,10 +1825,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -1829,10 +1839,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -1846,10 +1856,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -1863,13 +1873,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
@@ -1877,10 +1887,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" t="s">
-        <v>111</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1894,10 +1904,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -1911,10 +1921,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -1925,10 +1935,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -1945,10 +1955,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -1959,10 +1969,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
         <v>118</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -1985,10 +1995,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -1999,10 +2009,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -2022,10 +2032,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -2039,7 +2049,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -2062,10 +2072,10 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
         <v>124</v>
-      </c>
-      <c r="B66" t="s">
-        <v>125</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -2082,10 +2092,10 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -2099,10 +2109,10 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -2116,13 +2126,13 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E69" t="s">
         <v>29</v>
@@ -2133,10 +2143,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -2150,10 +2160,10 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -2164,13 +2174,13 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E72" t="s">
         <v>29</v>
@@ -2181,10 +2191,10 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -2198,13 +2208,13 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E74" t="s">
         <v>29</v>
@@ -2215,13 +2225,13 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
         <v>135</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>136</v>
-      </c>
-      <c r="C75" t="s">
-        <v>137</v>
       </c>
       <c r="E75" t="s">
         <v>29</v>
@@ -2232,13 +2242,13 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
@@ -2249,10 +2259,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -2266,10 +2276,10 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -2278,20 +2288,37 @@
         <v>29</v>
       </c>
       <c r="I78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{7DAD9BD4-AD67-4DA3-98A2-C32A7135234D}"/>
-    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{A6F599B3-6259-4356-93EF-33065827937B}"/>
-    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{7A1A4CB0-3F51-4B94-9AD3-F550333051A5}"/>
-    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{597ED5F1-624B-41E2-B895-E66C3860EFC7}"/>
-    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{CC9E0AEE-FDEB-4C2D-BF74-57B43E04355A}"/>
-    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{FCB9521F-8C80-4EA2-BD70-B0A229DCF2DE}"/>
-    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{9D2CD386-AAF4-4664-A354-70E40EE8CBFD}"/>
-    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{7BC3E63D-F2A8-486F-8C13-67AE42924CD7}"/>
-    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{EBFB1851-5D89-4B98-9A33-1318C5B07797}"/>
+    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{156EA8C6-9F61-48BA-B610-0E31172BE2E3}"/>
+    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{F74D921F-D801-4D59-B0FC-6978078C7A57}"/>
+    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{58F1D6E4-B19D-4ECC-BDAC-EB2DEEDDDA1E}"/>
+    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{7C31D0FA-5741-4CA4-A5F7-D9B7DD1F3776}"/>
+    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{5DA1F4CE-5441-424C-8EDB-E2CED15EC92D}"/>
+    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{ED59A07F-1EB6-4BA5-BF75-06AD5373830D}"/>
+    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{202DB5BC-FC9D-4238-A3CA-A1F385B4C982}"/>
+    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{321E72AA-58F4-489C-A9A4-00F30213ECE4}"/>
+    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{F28B2438-B28F-48F4-9BC4-383E80BE06E5}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId10"/>
@@ -2302,21 +2329,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="21585f8105577c55a14177137b0f487c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a739419b1432b2a493df12220e235f53" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -2460,24 +2472,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44DC42-D40D-4161-B416-680814B33C76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2493,4 +2503,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF55BE38-EDFE-4DE6-A9FD-90E1AB7F93E5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318BA498-9A9F-41EE-AAAA-E31500DBEE7E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,28 +551,24 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D60003CB-F279-4723-A52E-E2985DAFD393}" name="Tabelle13" displayName="Tabelle13" ref="A1:N79" totalsRowShown="0">
-  <autoFilter ref="A1:N79" xr:uid="{D60003CB-F279-4723-A52E-E2985DAFD393}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}" name="Tabelle1" displayName="Tabelle1" ref="A1:N79" totalsRowShown="0">
+  <autoFilter ref="A1:N79" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{5FB58078-93D4-43EE-A13C-657950C4E49F}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{195F76C5-F3DD-4BE2-9A14-556CF0E309AB}" name="Company"/>
-    <tableColumn id="4" xr3:uid="{D8460CBD-F4FD-497D-A793-C209B4B99C56}" name="Function"/>
-    <tableColumn id="5" xr3:uid="{FC76AA65-51E3-4E4D-9E9C-AA73D81C7FBB}" name="Lead" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{E97DAE4F-E2F0-4E3E-81D7-FEAB3CEEC6A9}" name="Type"/>
-    <tableColumn id="6" xr3:uid="{D4A2A5BD-0773-4EF6-B2EB-B31ADFA145D3}" name="Contact to"/>
-    <tableColumn id="7" xr3:uid="{82BFEF13-9C8C-48D7-BC85-AE1039FD337E}" name="Training"/>
-    <tableColumn id="8" xr3:uid="{64EE163A-3B4D-4D45-A3F5-DA847A089D6B}" name="Estimation"/>
-    <tableColumn id="9" xr3:uid="{A116E572-7DB4-4A56-9DF9-03F8A69186A1}" name="Reporting"/>
-    <tableColumn id="10" xr3:uid="{8BBA022B-ED3E-4FB9-8F86-531B2275B820}" name="EarlyPhase"/>
-    <tableColumn id="14" xr3:uid="{8479BBDC-E138-411F-9229-2D282422952B}" name="LateStage"/>
-    <tableColumn id="11" xr3:uid="{8ADFEBC8-482A-47B1-BB8A-6440A9B68850}" name="NonInferiority"/>
-    <tableColumn id="12" xr3:uid="{4AF79DC2-55DA-4D3B-8E6A-EC9B0542FB89}" name="Communications"/>
-    <tableColumn id="15" xr3:uid="{C18FE1C0-28F7-4B49-B3B2-EE94202BCEF8}" name="IntercurrentEvent"/>
+    <tableColumn id="1" xr3:uid="{90DF7BE4-4C7E-4F3D-8B33-9661BC441C08}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{A1F942EC-54E9-41B8-8BB5-1C9D8F099D48}" name="Company"/>
+    <tableColumn id="4" xr3:uid="{84EA482C-8A73-4DDA-9B80-62BFFDB3C597}" name="Function"/>
+    <tableColumn id="5" xr3:uid="{7B80B91C-B607-473A-A38C-F856036E8015}" name="Lead" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{937B4C3B-03B9-4E5E-A8DB-988EA3423A59}" name="Type"/>
+    <tableColumn id="6" xr3:uid="{FA91C472-6952-4765-9C0A-F39CC3D5C496}" name="Contact to"/>
+    <tableColumn id="7" xr3:uid="{6DD5538E-19EB-43F0-90DA-5ECFF7743308}" name="Training"/>
+    <tableColumn id="8" xr3:uid="{96F1E8E8-1824-4363-AE81-A270F0625B3E}" name="Estimation"/>
+    <tableColumn id="9" xr3:uid="{442DE6E4-061E-4186-86BA-538472B8BE8F}" name="Reporting"/>
+    <tableColumn id="10" xr3:uid="{11A7878D-AE81-49DA-9EAB-2920B6F41D1E}" name="EarlyPhase"/>
+    <tableColumn id="14" xr3:uid="{58FA6947-6A24-474C-B71A-79819C11250F}" name="LateStage"/>
+    <tableColumn id="11" xr3:uid="{6F12FEFD-620C-453B-8EA0-F02897693F0C}" name="NonInferiority"/>
+    <tableColumn id="12" xr3:uid="{20ABD840-DC0C-4E0B-A7B9-C98DE73BC326}" name="Communications"/>
+    <tableColumn id="15" xr3:uid="{B6AE1A02-44B1-4692-B69D-F92D86AB0CC0}" name="IntercurrentEvent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -880,8 +876,8 @@
   </sheetPr>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D65" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection sqref="A1:N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1031,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1245,7 +1241,7 @@
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -2310,15 +2306,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{156EA8C6-9F61-48BA-B610-0E31172BE2E3}"/>
-    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{F74D921F-D801-4D59-B0FC-6978078C7A57}"/>
-    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{58F1D6E4-B19D-4ECC-BDAC-EB2DEEDDDA1E}"/>
-    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{7C31D0FA-5741-4CA4-A5F7-D9B7DD1F3776}"/>
-    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{5DA1F4CE-5441-424C-8EDB-E2CED15EC92D}"/>
-    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{ED59A07F-1EB6-4BA5-BF75-06AD5373830D}"/>
-    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{202DB5BC-FC9D-4238-A3CA-A1F385B4C982}"/>
-    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{321E72AA-58F4-489C-A9A4-00F30213ECE4}"/>
-    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{F28B2438-B28F-48F4-9BC4-383E80BE06E5}"/>
+    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{CE986A09-F013-4E1E-957F-F9E84D458FE8}"/>
+    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{23F940B2-F30F-4636-A220-126C805C36BC}"/>
+    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{039FB45A-830A-4EDD-AAD8-3BC9C5E3968C}"/>
+    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{2388163E-ABAF-4059-83A1-C3AE16365D51}"/>
+    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{B905EB85-4CD9-4C22-A856-E7E4276F16B9}"/>
+    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{92D50EC8-9862-4A37-A069-E6526A9A51BB}"/>
+    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{33265316-146F-45A3-B36A-314221602CBF}"/>
+    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{13DDBFC0-7D06-4D97-8C83-D9DAE95AB716}"/>
+    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{5C8CEDFC-A830-4D86-A228-DC1EF5FCC5AD}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId10"/>
@@ -2473,18 +2469,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2506,18 +2502,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318BA498-9A9F-41EE-AAAA-E31500DBEE7E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB637F51-06B3-4B40-AF67-2DB84336173A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Barbara Rosettani</t>
   </si>
   <si>
-    <t>BMS</t>
-  </si>
-  <si>
     <t>Stefano Vezzoli</t>
   </si>
   <si>
@@ -446,9 +443,6 @@
     <t>Staburo</t>
   </si>
   <si>
-    <t>Program Manager</t>
-  </si>
-  <si>
     <t>Maarten van Dijk</t>
   </si>
   <si>
@@ -468,6 +462,39 @@
   </si>
   <si>
     <t>Biogen</t>
+  </si>
+  <si>
+    <t>Hookipapharma</t>
+  </si>
+  <si>
+    <t>Disclosure Manager</t>
+  </si>
+  <si>
+    <t>Disclosure Manager + Medical Writing</t>
+  </si>
+  <si>
+    <t>Franco Medolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Alignol </t>
+  </si>
+  <si>
+    <t>Daichi Sankio</t>
+  </si>
+  <si>
+    <t>Tatsiana Vaitsiakhovich</t>
+  </si>
+  <si>
+    <t>Boehringer-Ingelheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lotte Husemoen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuelle Boutmy </t>
+  </si>
+  <si>
+    <t>Federica Cavallo</t>
   </si>
 </sst>
 </file>
@@ -551,9 +578,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}" name="Tabelle1" displayName="Tabelle1" ref="A1:N79" totalsRowShown="0">
-  <autoFilter ref="A1:N79" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}" name="Tabelle1" displayName="Tabelle1" ref="A1:N85" totalsRowShown="0">
+  <autoFilter ref="A1:N85" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{90DF7BE4-4C7E-4F3D-8B33-9661BC441C08}" name="Name"/>
     <tableColumn id="3" xr3:uid="{A1F942EC-54E9-41B8-8BB5-1C9D8F099D48}" name="Company"/>
@@ -874,10 +905,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection sqref="A1:N79"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1027,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1067,7 +1098,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1101,7 +1132,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1124,7 +1155,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1138,10 +1169,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1155,13 +1186,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -1169,10 +1200,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1186,10 +1217,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1203,10 +1234,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1232,27 +1263,27 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -1263,10 +1294,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1280,10 +1311,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1297,10 +1328,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1311,10 +1342,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1328,10 +1359,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1342,13 +1373,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
@@ -1356,10 +1387,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
         <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1370,10 +1401,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1385,7 +1416,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M26" t="s">
         <v>20</v>
@@ -1396,10 +1427,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1410,13 +1441,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
@@ -1424,10 +1455,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1438,13 +1469,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -1455,10 +1486,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1469,19 +1500,19 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
         <v>74</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>75</v>
       </c>
       <c r="N32" t="s">
         <v>20</v>
@@ -1489,10 +1520,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
         <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1503,10 +1534,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1520,10 +1551,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
         <v>79</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1534,10 +1565,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1560,10 +1591,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
         <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1574,10 +1605,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
         <v>85</v>
-      </c>
-      <c r="B38" t="s">
-        <v>86</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1591,10 +1622,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1611,10 +1642,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
         <v>88</v>
-      </c>
-      <c r="B40" t="s">
-        <v>89</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1626,7 +1657,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -1643,13 +1674,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -1657,10 +1688,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1674,10 +1705,10 @@
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1691,27 +1722,27 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
         <v>94</v>
       </c>
-      <c r="B44" t="s">
-        <v>95</v>
-      </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
         <v>17</v>
@@ -1719,13 +1750,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
         <v>97</v>
       </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
         <v>17</v>
@@ -1733,10 +1764,10 @@
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1756,13 +1787,13 @@
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
         <v>29</v>
@@ -1770,10 +1801,10 @@
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
         <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>102</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -1790,13 +1821,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
         <v>29</v>
@@ -1804,10 +1835,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -1821,10 +1852,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -1835,10 +1866,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -1852,10 +1883,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -1869,13 +1900,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
@@ -1883,10 +1914,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" t="s">
-        <v>110</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1900,10 +1931,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -1917,10 +1948,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
         <v>112</v>
-      </c>
-      <c r="B58" t="s">
-        <v>113</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -1931,10 +1962,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
         <v>114</v>
-      </c>
-      <c r="B59" t="s">
-        <v>115</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -1951,10 +1982,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -1965,10 +1996,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
         <v>117</v>
-      </c>
-      <c r="B61" t="s">
-        <v>118</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -1979,9 +2010,6 @@
       <c r="E61" t="s">
         <v>17</v>
       </c>
-      <c r="I61" t="s">
-        <v>20</v>
-      </c>
       <c r="L61" t="s">
         <v>20</v>
       </c>
@@ -1991,10 +2019,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -2005,10 +2033,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -2028,10 +2056,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -2045,7 +2073,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -2068,10 +2096,10 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="s">
         <v>123</v>
-      </c>
-      <c r="B66" t="s">
-        <v>124</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -2088,10 +2116,10 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -2105,10 +2133,10 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -2122,13 +2150,13 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E69" t="s">
         <v>29</v>
@@ -2139,10 +2167,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -2156,10 +2184,10 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -2170,13 +2198,13 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E72" t="s">
         <v>29</v>
@@ -2187,10 +2215,10 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -2204,13 +2232,13 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
         <v>29</v>
@@ -2221,13 +2249,13 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s">
         <v>134</v>
       </c>
-      <c r="B75" t="s">
-        <v>135</v>
-      </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E75" t="s">
         <v>29</v>
@@ -2238,13 +2266,13 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
@@ -2255,10 +2283,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -2272,16 +2300,16 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I78" t="s">
         <v>20</v>
@@ -2289,10 +2317,10 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -2301,20 +2329,107 @@
         <v>29</v>
       </c>
       <c r="H79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{CE986A09-F013-4E1E-957F-F9E84D458FE8}"/>
-    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{23F940B2-F30F-4636-A220-126C805C36BC}"/>
-    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{039FB45A-830A-4EDD-AAD8-3BC9C5E3968C}"/>
-    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{2388163E-ABAF-4059-83A1-C3AE16365D51}"/>
-    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{B905EB85-4CD9-4C22-A856-E7E4276F16B9}"/>
-    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{92D50EC8-9862-4A37-A069-E6526A9A51BB}"/>
-    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{33265316-146F-45A3-B36A-314221602CBF}"/>
-    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{13DDBFC0-7D06-4D97-8C83-D9DAE95AB716}"/>
-    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{5C8CEDFC-A830-4D86-A228-DC1EF5FCC5AD}"/>
+    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{EBE20478-0968-4A4C-9171-AFBA9AA25304}"/>
+    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{7FE4F43F-8A17-4F8F-B8CF-66589B4EC62D}"/>
+    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{FC8E08CC-F9FD-49C9-98F5-35841E7A191A}"/>
+    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{3E5F75DC-5AA3-4E26-9A70-397321E235E8}"/>
+    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{B609E4ED-43F2-449D-B514-A11A9D6CDB7E}"/>
+    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{619E57BA-8A59-442D-B97B-532671E67D5C}"/>
+    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{50C23274-35E9-426D-AD86-7FC7D8128987}"/>
+    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{AEED1870-BD95-46F7-90DE-3C8C4664F215}"/>
+    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{DE9D1F4C-140D-4B19-964E-938B9E178C22}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId10"/>
@@ -2325,6 +2440,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="21585f8105577c55a14177137b0f487c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a739419b1432b2a493df12220e235f53" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -2468,22 +2598,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44DC42-D40D-4161-B416-680814B33C76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2499,21 +2631,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB637F51-06B3-4B40-AF67-2DB84336173A}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCCAF16-437C-4D4E-9E57-5A6A940F3BA6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Stefan Englert</t>
   </si>
   <si>
-    <t>J&amp;J/Janssen</t>
-  </si>
-  <si>
     <t>OncoEstimand</t>
   </si>
   <si>
@@ -495,6 +492,48 @@
   </si>
   <si>
     <t>Federica Cavallo</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Jared Christensen</t>
+  </si>
+  <si>
+    <t>Patrick Darken</t>
+  </si>
+  <si>
+    <t>Elena Polverejan</t>
+  </si>
+  <si>
+    <t>J&amp;J</t>
+  </si>
+  <si>
+    <t>Xinyu Tang</t>
+  </si>
+  <si>
+    <t>Bohdana Ratitch</t>
+  </si>
+  <si>
+    <t>Jonathan Fintzi</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>Adrian Coles</t>
+  </si>
+  <si>
+    <t>Yongming Qu</t>
+  </si>
+  <si>
+    <t>Jiao Yang</t>
+  </si>
+  <si>
+    <t>Sanofi</t>
+  </si>
+  <si>
+    <t>Liyi Jia</t>
   </si>
 </sst>
 </file>
@@ -546,11 +585,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -578,14 +618,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}" name="Tabelle1" displayName="Tabelle1" ref="A1:N85" totalsRowShown="0">
-  <autoFilter ref="A1:N85" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}" name="Tabelle1" displayName="Tabelle1" ref="A1:O95" totalsRowShown="0">
+  <autoFilter ref="A1:O95" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{90DF7BE4-4C7E-4F3D-8B33-9661BC441C08}" name="Name"/>
     <tableColumn id="3" xr3:uid="{A1F942EC-54E9-41B8-8BB5-1C9D8F099D48}" name="Company"/>
     <tableColumn id="4" xr3:uid="{84EA482C-8A73-4DDA-9B80-62BFFDB3C597}" name="Function"/>
@@ -600,6 +636,7 @@
     <tableColumn id="11" xr3:uid="{6F12FEFD-620C-453B-8EA0-F02897693F0C}" name="NonInferiority"/>
     <tableColumn id="12" xr3:uid="{20ABD840-DC0C-4E0B-A7B9-C98DE73BC326}" name="Communications"/>
     <tableColumn id="15" xr3:uid="{B6AE1A02-44B1-4692-B69D-F92D86AB0CC0}" name="IntercurrentEvent"/>
+    <tableColumn id="2" xr3:uid="{E40105CC-553A-4713-9BF9-D2090938F157}" name="US"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -905,10 +942,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -926,7 +963,7 @@
     <col min="13" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,8 +1006,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -984,7 +1024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1004,7 +1044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1027,7 +1067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1053,12 +1093,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1076,7 +1116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1093,12 +1133,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1110,7 +1150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1127,12 +1167,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1150,12 +1190,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1167,7 +1207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1184,7 +1224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1198,7 +1238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1215,7 +1255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1258,6 +1298,9 @@
         <v>20</v>
       </c>
       <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1272,7 +1315,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -1404,7 +1447,7 @@
         <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1416,7 +1459,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M26" t="s">
         <v>20</v>
@@ -1427,10 +1470,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1441,13 +1484,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
@@ -1455,10 +1498,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
         <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1469,10 +1512,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -1486,10 +1529,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1500,19 +1543,19 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
         <v>72</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
         <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>74</v>
       </c>
       <c r="N32" t="s">
         <v>20</v>
@@ -1520,10 +1563,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
         <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1534,10 +1577,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1551,10 +1594,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1565,10 +1608,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
         <v>80</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1591,10 +1634,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
         <v>82</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1605,10 +1648,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
         <v>84</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1622,10 +1665,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1642,10 +1685,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1657,7 +1700,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -1674,10 +1717,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
         <v>45</v>
@@ -1688,10 +1731,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1705,10 +1748,10 @@
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1722,24 +1765,24 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
         <v>93</v>
       </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
@@ -1750,10 +1793,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>97</v>
       </c>
       <c r="C46" t="s">
         <v>45</v>
@@ -1764,10 +1807,10 @@
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1787,10 +1830,10 @@
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
         <v>47</v>
@@ -1801,10 +1844,10 @@
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
         <v>100</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -1821,10 +1864,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>47</v>
@@ -1835,10 +1878,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -1852,10 +1895,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -1866,10 +1909,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -1883,10 +1926,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -1900,10 +1943,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
         <v>45</v>
@@ -1914,10 +1957,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
         <v>108</v>
-      </c>
-      <c r="B56" t="s">
-        <v>109</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1931,10 +1974,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -1948,10 +1991,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
         <v>111</v>
-      </c>
-      <c r="B58" t="s">
-        <v>112</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -1962,10 +2005,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
         <v>113</v>
-      </c>
-      <c r="B59" t="s">
-        <v>114</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -1982,10 +2025,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -1996,10 +2039,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
         <v>116</v>
-      </c>
-      <c r="B61" t="s">
-        <v>117</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -2019,10 +2062,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -2033,10 +2076,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -2056,10 +2099,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -2073,7 +2116,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -2096,10 +2139,10 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
         <v>122</v>
-      </c>
-      <c r="B66" t="s">
-        <v>123</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -2116,10 +2159,10 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -2133,7 +2176,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -2150,10 +2193,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
         <v>47</v>
@@ -2167,10 +2210,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -2184,10 +2227,10 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -2198,13 +2241,13 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E72" t="s">
         <v>29</v>
@@ -2215,7 +2258,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
         <v>43</v>
@@ -2232,13 +2275,13 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74" t="s">
         <v>29</v>
@@ -2249,13 +2292,13 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" t="s">
         <v>133</v>
       </c>
-      <c r="B75" t="s">
-        <v>134</v>
-      </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E75" t="s">
         <v>29</v>
@@ -2266,13 +2309,13 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E76" t="s">
         <v>29</v>
@@ -2283,10 +2326,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -2300,10 +2343,10 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -2317,10 +2360,10 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" t="s">
         <v>140</v>
-      </c>
-      <c r="B79" t="s">
-        <v>141</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -2334,7 +2377,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
         <v>27</v>
@@ -2346,76 +2389,270 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
         <v>146</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="K81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>147</v>
       </c>
-      <c r="C81" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>148</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+      <c r="K82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>149</v>
       </c>
-      <c r="C82" t="s">
-        <v>16</v>
-      </c>
-      <c r="K82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>150</v>
       </c>
-      <c r="B83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+      <c r="K84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>151</v>
-      </c>
-      <c r="B84" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" t="s">
-        <v>16</v>
-      </c>
-      <c r="K84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>152</v>
       </c>
       <c r="B85" t="s">
         <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E85" t="s">
         <v>29</v>
       </c>
       <c r="I85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="O86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+      <c r="O87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="O88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+      <c r="O89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="O90" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="O91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="O92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="O93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="O94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="O95" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2440,18 +2677,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2599,18 +2836,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCCAF16-437C-4D4E-9E57-5A6A940F3BA6}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07A0ECD3-F436-4112-BA2E-3CD1CADCB920}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="2040" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -585,12 +585,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -616,6 +615,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -944,8 +947,8 @@
   </sheetPr>
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1815,6 +1818,9 @@
       <c r="C47" t="s">
         <v>16</v>
       </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
       <c r="E47" t="s">
         <v>17</v>
       </c>
@@ -1852,9 +1858,6 @@
       <c r="C49" t="s">
         <v>16</v>
       </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
       <c r="E49" t="s">
         <v>17</v>
       </c>
@@ -2090,9 +2093,6 @@
       <c r="E63" t="s">
         <v>17</v>
       </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
       <c r="K63" t="s">
         <v>20</v>
       </c>
@@ -2476,15 +2476,17 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C86" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" t="s">
+        <v>152</v>
+      </c>
       <c r="E86" t="s">
         <v>17</v>
       </c>
@@ -2494,16 +2496,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
@@ -2514,15 +2513,17 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="4"/>
+      <c r="D88" t="s">
+        <v>152</v>
+      </c>
       <c r="E88" t="s">
         <v>17</v>
       </c>
@@ -2540,7 +2541,6 @@
       <c r="C89" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="4"/>
       <c r="E89" t="s">
         <v>17</v>
       </c>
@@ -2558,7 +2558,6 @@
       <c r="C90" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="4"/>
       <c r="E90" t="s">
         <v>17</v>
       </c>
@@ -2576,7 +2575,6 @@
       <c r="C91" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="4"/>
       <c r="E91" t="s">
         <v>17</v>
       </c>
@@ -2594,7 +2592,6 @@
       <c r="C92" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="4"/>
       <c r="E92" t="s">
         <v>17</v>
       </c>
@@ -2612,7 +2609,6 @@
       <c r="C93" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="4"/>
       <c r="E93" t="s">
         <v>17</v>
       </c>
@@ -2630,7 +2626,6 @@
       <c r="C94" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="4"/>
       <c r="E94" t="s">
         <v>17</v>
       </c>
@@ -2648,7 +2643,6 @@
       <c r="C95" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="4"/>
       <c r="E95" t="s">
         <v>17</v>
       </c>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07A0ECD3-F436-4112-BA2E-3CD1CADCB920}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0903B50-8DFF-4770-9F6D-529E921A9E17}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="2040" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="170">
   <si>
     <t>Name</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Amel Besseghir</t>
   </si>
   <si>
-    <t>Fresenius</t>
-  </si>
-  <si>
     <t>Co-Lead EIWG</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t>Armin Schueler</t>
   </si>
   <si>
-    <t>Morphosys</t>
-  </si>
-  <si>
     <t>PhUSE</t>
   </si>
   <si>
@@ -534,6 +528,24 @@
   </si>
   <si>
     <t>Liyi Jia</t>
+  </si>
+  <si>
+    <t>StudyDesign</t>
+  </si>
+  <si>
+    <t>Fortrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharani Dharan </t>
+  </si>
+  <si>
+    <t>Jay Park</t>
+  </si>
+  <si>
+    <t>McMaster Univ, Canada</t>
+  </si>
+  <si>
+    <t>Simon Newsome</t>
   </si>
 </sst>
 </file>
@@ -585,11 +597,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -622,9 +635,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}" name="Tabelle1" displayName="Tabelle1" ref="A1:O95" totalsRowShown="0">
-  <autoFilter ref="A1:O95" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}" name="Tabelle1" displayName="Tabelle1" ref="A1:P98" totalsRowShown="0">
+  <autoFilter ref="A1:P98" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{90DF7BE4-4C7E-4F3D-8B33-9661BC441C08}" name="Name"/>
     <tableColumn id="3" xr3:uid="{A1F942EC-54E9-41B8-8BB5-1C9D8F099D48}" name="Company"/>
     <tableColumn id="4" xr3:uid="{84EA482C-8A73-4DDA-9B80-62BFFDB3C597}" name="Function"/>
@@ -640,6 +653,7 @@
     <tableColumn id="12" xr3:uid="{20ABD840-DC0C-4E0B-A7B9-C98DE73BC326}" name="Communications"/>
     <tableColumn id="15" xr3:uid="{B6AE1A02-44B1-4692-B69D-F92D86AB0CC0}" name="IntercurrentEvent"/>
     <tableColumn id="2" xr3:uid="{E40105CC-553A-4713-9BF9-D2090938F157}" name="US"/>
+    <tableColumn id="16" xr3:uid="{D8EB0BF8-2E74-4901-B179-B0F7456ABA00}" name="StudyDesign"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -945,10 +959,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,7 +980,7 @@
     <col min="13" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1010,10 +1024,13 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1027,7 +1044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1047,61 +1064,64 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1119,63 +1139,63 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1192,265 +1212,277 @@
       <c r="N10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="E17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1462,103 +1494,103 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="M26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
         <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>73</v>
       </c>
       <c r="N32" t="s">
         <v>20</v>
@@ -1566,10 +1598,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1580,16 +1612,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L34" t="s">
         <v>20</v>
@@ -1597,10 +1629,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1611,10 +1643,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1637,10 +1669,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1651,10 +1683,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1668,16 +1700,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s">
         <v>20</v>
@@ -1688,10 +1720,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1703,7 +1735,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -1720,13 +1752,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -1734,10 +1766,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1751,16 +1783,16 @@
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J43" t="s">
         <v>20</v>
@@ -1768,27 +1800,27 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
         <v>17</v>
@@ -1796,13 +1828,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
         <v>17</v>
@@ -1810,10 +1842,10 @@
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1836,216 +1868,216 @@
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
         <v>98</v>
       </c>
-      <c r="B48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>100</v>
       </c>
-      <c r="C49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" t="s">
-        <v>29</v>
-      </c>
-      <c r="L51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>103</v>
       </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>104</v>
       </c>
-      <c r="B53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>105</v>
       </c>
-      <c r="B54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" t="s">
-        <v>29</v>
-      </c>
-      <c r="L54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="B56" t="s">
         <v>106</v>
       </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>107</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>108</v>
       </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" t="s">
-        <v>29</v>
-      </c>
-      <c r="L56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B58" t="s">
         <v>109</v>
       </c>
-      <c r="B57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>110</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>111</v>
       </c>
-      <c r="C58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>112</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>113</v>
       </c>
-      <c r="C59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" t="s">
-        <v>20</v>
-      </c>
-      <c r="N59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B61" t="s">
         <v>114</v>
-      </c>
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" t="s">
-        <v>116</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -2063,26 +2095,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>116</v>
       </c>
-      <c r="C62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>118</v>
-      </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -2097,12 +2132,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -2114,9 +2149,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
@@ -2137,250 +2172,256 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>121</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" t="s">
-        <v>20</v>
-      </c>
-      <c r="N66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="N68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="J69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>124</v>
       </c>
-      <c r="B68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" t="s">
-        <v>29</v>
-      </c>
-      <c r="N68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>125</v>
       </c>
-      <c r="B69" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" t="s">
-        <v>47</v>
-      </c>
-      <c r="E69" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>126</v>
       </c>
-      <c r="B70" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" t="s">
-        <v>29</v>
-      </c>
-      <c r="J70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s">
         <v>127</v>
       </c>
-      <c r="B71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>128</v>
       </c>
-      <c r="B72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>129</v>
       </c>
-      <c r="E72" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>130</v>
       </c>
-      <c r="B73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" t="s">
-        <v>29</v>
-      </c>
-      <c r="I73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B75" t="s">
         <v>131</v>
       </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" t="s">
-        <v>129</v>
-      </c>
-      <c r="E74" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>132</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>133</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>142</v>
       </c>
-      <c r="E75" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" t="s">
-        <v>143</v>
-      </c>
-      <c r="E76" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>144</v>
-      </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
@@ -2391,16 +2432,16 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K81" t="s">
         <v>20</v>
@@ -2408,16 +2449,16 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K82" t="s">
         <v>20</v>
@@ -2425,16 +2466,16 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
         <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K83" t="s">
         <v>20</v>
@@ -2442,16 +2483,16 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K84" t="s">
         <v>20</v>
@@ -2459,16 +2500,16 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I85" t="s">
         <v>20</v>
@@ -2476,16 +2517,16 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E86" t="s">
         <v>17</v>
@@ -2496,10 +2537,10 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
@@ -2513,16 +2554,16 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E88" t="s">
         <v>17</v>
@@ -2533,7 +2574,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
@@ -2550,10 +2591,10 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
         <v>16</v>
@@ -2567,10 +2608,10 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
         <v>16</v>
@@ -2584,10 +2625,10 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
         <v>16</v>
@@ -2601,10 +2642,10 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s">
         <v>16</v>
@@ -2618,10 +2659,10 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
@@ -2635,10 +2676,10 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -2647,20 +2688,72 @@
         <v>17</v>
       </c>
       <c r="O95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="O96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="O97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="P98" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{EBE20478-0968-4A4C-9171-AFBA9AA25304}"/>
-    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{7FE4F43F-8A17-4F8F-B8CF-66589B4EC62D}"/>
-    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{FC8E08CC-F9FD-49C9-98F5-35841E7A191A}"/>
-    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{3E5F75DC-5AA3-4E26-9A70-397321E235E8}"/>
-    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{B609E4ED-43F2-449D-B514-A11A9D6CDB7E}"/>
-    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{619E57BA-8A59-442D-B97B-532671E67D5C}"/>
-    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{50C23274-35E9-426D-AD86-7FC7D8128987}"/>
-    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{AEED1870-BD95-46F7-90DE-3C8C4664F215}"/>
-    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{DE9D1F4C-140D-4B19-964E-938B9E178C22}"/>
+    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{C44700A6-7F76-434C-8DD3-7FA23A81C240}"/>
+    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{E3EB23F8-0296-4745-B451-F3E2620CDFA2}"/>
+    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{2606AD7B-CA23-4311-99BC-56B64B4C1464}"/>
+    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{8E83AE87-7E63-4540-A7B4-78CF7CEA3126}"/>
+    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{ACB4D1D6-EF6C-4A8E-BFFB-BC57D6BE6709}"/>
+    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{8D6AA4DF-58D1-4282-9373-4162BB66C72F}"/>
+    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{E8448F41-9D86-4436-94EF-CE8F8F502017}"/>
+    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{90787F68-954D-4ED3-A503-1A21D5705858}"/>
+    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{B6279BC3-07BA-4E46-AD20-B16FBA109BC7}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId10"/>
@@ -2680,12 +2773,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="21585f8105577c55a14177137b0f487c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a739419b1432b2a493df12220e235f53" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -2829,6 +2916,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
   <ds:schemaRefs>
@@ -2838,15 +2931,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44DC42-D40D-4161-B416-680814B33C76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2862,4 +2946,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0903B50-8DFF-4770-9F6D-529E921A9E17}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4042BA45-8DBC-4412-8CBE-2F78167F5BA5}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2040" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="170">
   <si>
     <t>Name</t>
   </si>
@@ -597,12 +597,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -961,8 +960,8 @@
   </sheetPr>
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1329,9 +1328,6 @@
       <c r="O16" t="s">
         <v>20</v>
       </c>
-      <c r="P16" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -1439,9 +1435,6 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
@@ -2305,7 +2298,7 @@
         <v>164</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I73" t="s">
         <v>20</v>
@@ -2735,7 +2728,6 @@
       <c r="C98" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="4"/>
       <c r="E98" t="s">
         <v>28</v>
       </c>
@@ -2764,15 +2756,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="21585f8105577c55a14177137b0f487c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a739419b1432b2a493df12220e235f53" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -2916,6 +2899,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2923,14 +2915,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44DC42-D40D-4161-B416-680814B33C76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2948,6 +2932,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
   <ds:schemaRefs>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4042BA45-8DBC-4412-8CBE-2F78167F5BA5}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{335B5030-0AC8-4C40-9374-365A4E94C909}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="2040" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -488,9 +488,6 @@
     <t>Federica Cavallo</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>Jared Christensen</t>
   </si>
   <si>
@@ -546,6 +543,12 @@
   </si>
   <si>
     <t>Simon Newsome</t>
+  </si>
+  <si>
+    <t>USandCanada</t>
+  </si>
+  <si>
+    <t>Alexandra Lauer</t>
   </si>
 </sst>
 </file>
@@ -634,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}" name="Tabelle1" displayName="Tabelle1" ref="A1:P98" totalsRowShown="0">
-  <autoFilter ref="A1:P98" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}" name="Tabelle1" displayName="Tabelle1" ref="A1:P99" totalsRowShown="0">
+  <autoFilter ref="A1:P99" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{90DF7BE4-4C7E-4F3D-8B33-9661BC441C08}" name="Name"/>
     <tableColumn id="3" xr3:uid="{A1F942EC-54E9-41B8-8BB5-1C9D8F099D48}" name="Company"/>
@@ -651,7 +654,7 @@
     <tableColumn id="11" xr3:uid="{6F12FEFD-620C-453B-8EA0-F02897693F0C}" name="NonInferiority"/>
     <tableColumn id="12" xr3:uid="{20ABD840-DC0C-4E0B-A7B9-C98DE73BC326}" name="Communications"/>
     <tableColumn id="15" xr3:uid="{B6AE1A02-44B1-4692-B69D-F92D86AB0CC0}" name="IntercurrentEvent"/>
-    <tableColumn id="2" xr3:uid="{E40105CC-553A-4713-9BF9-D2090938F157}" name="US"/>
+    <tableColumn id="2" xr3:uid="{E40105CC-553A-4713-9BF9-D2090938F157}" name="USandCanada"/>
     <tableColumn id="16" xr3:uid="{D8EB0BF8-2E74-4901-B179-B0F7456ABA00}" name="StudyDesign"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -958,10 +961,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1023,10 +1026,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1068,7 +1071,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1475,7 +1478,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -2295,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E73" t="s">
         <v>17</v>
@@ -2510,16 +2513,16 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" t="s">
         <v>153</v>
       </c>
-      <c r="B86" t="s">
-        <v>154</v>
-      </c>
       <c r="C86" t="s">
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E86" t="s">
         <v>17</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
@@ -2547,7 +2550,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
         <v>24</v>
@@ -2556,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E88" t="s">
         <v>17</v>
@@ -2567,7 +2570,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
@@ -2584,7 +2587,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -2601,10 +2604,10 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" t="s">
         <v>157</v>
-      </c>
-      <c r="B91" t="s">
-        <v>158</v>
       </c>
       <c r="C91" t="s">
         <v>16</v>
@@ -2618,7 +2621,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B92" t="s">
         <v>138</v>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B93" t="s">
         <v>63</v>
@@ -2652,10 +2655,10 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>160</v>
+      </c>
+      <c r="B94" t="s">
         <v>161</v>
-      </c>
-      <c r="B94" t="s">
-        <v>162</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
@@ -2669,7 +2672,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
         <v>73</v>
@@ -2686,7 +2689,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B96" t="s">
         <v>82</v>
@@ -2703,10 +2706,10 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" t="s">
         <v>167</v>
-      </c>
-      <c r="B97" t="s">
-        <v>168</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
@@ -2720,7 +2723,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B98" t="s">
         <v>82</v>
@@ -2733,6 +2736,20 @@
       </c>
       <c r="P98" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2756,6 +2773,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="21585f8105577c55a14177137b0f487c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a739419b1432b2a493df12220e235f53" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -2899,22 +2931,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44DC42-D40D-4161-B416-680814B33C76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2930,21 +2964,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{335B5030-0AC8-4C40-9374-365A4E94C909}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C7D84F-FA43-4E5D-98C9-41EC8228BF02}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="2040" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -464,9 +464,6 @@
     <t>Disclosure Manager + Medical Writing</t>
   </si>
   <si>
-    <t>Franco Medolina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arthur Alignol </t>
   </si>
   <si>
@@ -549,6 +546,9 @@
   </si>
   <si>
     <t>Alexandra Lauer</t>
+  </si>
+  <si>
+    <t>Franco Mendolia</t>
   </si>
 </sst>
 </file>
@@ -963,8 +963,8 @@
   </sheetPr>
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="D71" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1026,10 +1026,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1071,7 +1071,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1478,7 +1478,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -2298,7 +2298,7 @@
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
         <v>17</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -2425,13 +2425,16 @@
       <c r="E80" t="s">
         <v>17</v>
       </c>
+      <c r="I80" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" t="s">
         <v>143</v>
-      </c>
-      <c r="B81" t="s">
-        <v>144</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
@@ -2445,10 +2448,10 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" t="s">
         <v>145</v>
-      </c>
-      <c r="B82" t="s">
-        <v>146</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
@@ -2462,7 +2465,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
@@ -2496,7 +2499,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -2513,16 +2516,16 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" t="s">
         <v>152</v>
       </c>
-      <c r="B86" t="s">
-        <v>153</v>
-      </c>
       <c r="C86" t="s">
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E86" t="s">
         <v>17</v>
@@ -2533,7 +2536,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
@@ -2550,7 +2553,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B88" t="s">
         <v>24</v>
@@ -2559,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E88" t="s">
         <v>17</v>
@@ -2570,7 +2573,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
@@ -2587,7 +2590,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -2604,10 +2607,10 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" t="s">
         <v>156</v>
-      </c>
-      <c r="B91" t="s">
-        <v>157</v>
       </c>
       <c r="C91" t="s">
         <v>16</v>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B92" t="s">
         <v>138</v>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B93" t="s">
         <v>63</v>
@@ -2655,10 +2658,10 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" t="s">
         <v>160</v>
-      </c>
-      <c r="B94" t="s">
-        <v>161</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
@@ -2672,7 +2675,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B95" t="s">
         <v>73</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
         <v>82</v>
@@ -2706,10 +2709,10 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" t="s">
         <v>166</v>
-      </c>
-      <c r="B97" t="s">
-        <v>167</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
@@ -2723,7 +2726,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
         <v>82</v>
@@ -2740,10 +2743,10 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
@@ -2773,18 +2776,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2932,18 +2935,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sengl\OneDrive\Dokumente\Webseiten\EIWG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_1329E47AF590188FDA5ACF01FB3FC0173EAA5361" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C7D84F-FA43-4E5D-98C9-41EC8228BF02}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1314935-C5B3-4AE7-B730-4C7C0C7E3407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2040" windowWidth="18000" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="181">
   <si>
     <t>Name</t>
   </si>
@@ -549,6 +549,36 @@
   </si>
   <si>
     <t>Franco Mendolia</t>
+  </si>
+  <si>
+    <t>BfArM</t>
+  </si>
+  <si>
+    <t>Na Xu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetech/Roche </t>
+  </si>
+  <si>
+    <t>Brian Wiens</t>
+  </si>
+  <si>
+    <t>Rivus Pharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Gan </t>
+  </si>
+  <si>
+    <t>ViiV</t>
+  </si>
+  <si>
+    <t>Stephen Ruberg</t>
+  </si>
+  <si>
+    <t>Analytix Thinking</t>
+  </si>
+  <si>
+    <t>NorthAmerica</t>
   </si>
 </sst>
 </file>
@@ -600,11 +630,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -632,30 +665,26 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}" name="Tabelle1" displayName="Tabelle1" ref="A1:P99" totalsRowShown="0">
-  <autoFilter ref="A1:P99" xr:uid="{374549D1-D3BF-4254-BDF5-218289279DEE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{650566AF-F73B-41F8-B217-CD1938D7378E}" name="Tabelle13" displayName="Tabelle13" ref="A1:P103" totalsRowShown="0">
+  <autoFilter ref="A1:P103" xr:uid="{650566AF-F73B-41F8-B217-CD1938D7378E}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{90DF7BE4-4C7E-4F3D-8B33-9661BC441C08}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{A1F942EC-54E9-41B8-8BB5-1C9D8F099D48}" name="Company"/>
-    <tableColumn id="4" xr3:uid="{84EA482C-8A73-4DDA-9B80-62BFFDB3C597}" name="Function"/>
-    <tableColumn id="5" xr3:uid="{7B80B91C-B607-473A-A38C-F856036E8015}" name="Lead" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{937B4C3B-03B9-4E5E-A8DB-988EA3423A59}" name="Type"/>
-    <tableColumn id="6" xr3:uid="{FA91C472-6952-4765-9C0A-F39CC3D5C496}" name="Contact to"/>
-    <tableColumn id="7" xr3:uid="{6DD5538E-19EB-43F0-90DA-5ECFF7743308}" name="Training"/>
-    <tableColumn id="8" xr3:uid="{96F1E8E8-1824-4363-AE81-A270F0625B3E}" name="Estimation"/>
-    <tableColumn id="9" xr3:uid="{442DE6E4-061E-4186-86BA-538472B8BE8F}" name="Reporting"/>
-    <tableColumn id="10" xr3:uid="{11A7878D-AE81-49DA-9EAB-2920B6F41D1E}" name="EarlyPhase"/>
-    <tableColumn id="14" xr3:uid="{58FA6947-6A24-474C-B71A-79819C11250F}" name="LateStage"/>
-    <tableColumn id="11" xr3:uid="{6F12FEFD-620C-453B-8EA0-F02897693F0C}" name="NonInferiority"/>
-    <tableColumn id="12" xr3:uid="{20ABD840-DC0C-4E0B-A7B9-C98DE73BC326}" name="Communications"/>
-    <tableColumn id="15" xr3:uid="{B6AE1A02-44B1-4692-B69D-F92D86AB0CC0}" name="IntercurrentEvent"/>
-    <tableColumn id="2" xr3:uid="{E40105CC-553A-4713-9BF9-D2090938F157}" name="USandCanada"/>
-    <tableColumn id="16" xr3:uid="{D8EB0BF8-2E74-4901-B179-B0F7456ABA00}" name="StudyDesign"/>
+    <tableColumn id="1" xr3:uid="{97E2A29D-B888-411A-9C63-65873C8422D6}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{DF826309-7F45-4D14-88D8-48604C35E54D}" name="Company"/>
+    <tableColumn id="4" xr3:uid="{44FE806B-64FC-4592-9F90-DBE6456CB90B}" name="Function"/>
+    <tableColumn id="5" xr3:uid="{A6AABD66-8F19-4EAF-A0DD-F4FAF5BB0696}" name="Lead" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{5A7BDB31-8DD4-45EA-B9DF-9FC82A30EB51}" name="Type"/>
+    <tableColumn id="6" xr3:uid="{66CD400B-3B58-4C16-89AC-DEED83CDD2DF}" name="Contact to"/>
+    <tableColumn id="7" xr3:uid="{E278C033-C1AC-41AA-B3B4-D52FDAD8BBE4}" name="Training"/>
+    <tableColumn id="8" xr3:uid="{AEA9B2C7-CC58-4C77-A9AE-CDCB43470F1F}" name="Estimation"/>
+    <tableColumn id="9" xr3:uid="{B98066C8-A349-441B-8A49-FFFAD91E92B1}" name="Reporting"/>
+    <tableColumn id="10" xr3:uid="{56082CC8-BBE5-488C-9502-B5CBA29B1237}" name="EarlyPhase"/>
+    <tableColumn id="14" xr3:uid="{6FE44279-EF3B-4F42-8465-9AC2B0F2E0F8}" name="LateStage"/>
+    <tableColumn id="11" xr3:uid="{E4AC0F7D-7B52-4D9F-AD17-ACA5950EC069}" name="NonInferiority"/>
+    <tableColumn id="12" xr3:uid="{BD0F89C4-495D-48E0-868F-3E4DD6F2DFBA}" name="Communications"/>
+    <tableColumn id="15" xr3:uid="{04E8C3B9-B9B2-4CD0-854E-49F114168874}" name="IntercurrentEvent"/>
+    <tableColumn id="16" xr3:uid="{F50932B8-85A1-407E-9374-9C2B489EDB59}" name="NorthAmerica"/>
+    <tableColumn id="17" xr3:uid="{410402E7-09C9-4FD0-A5A6-89870F81D0D1}" name="StudyDesign"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -961,10 +990,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D71" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1026,9 +1055,9 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1424,6 +1453,9 @@
       <c r="E22" t="s">
         <v>17</v>
       </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
       <c r="L22" t="s">
         <v>20</v>
       </c>
@@ -1577,7 +1609,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -2726,71 +2758,125 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>28</v>
-      </c>
-      <c r="P98" t="s">
+        <v>17</v>
+      </c>
+      <c r="O98" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="O99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+      <c r="O100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="O101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" t="s">
+        <v>28</v>
+      </c>
+      <c r="P102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>169</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B103" t="s">
         <v>145</v>
       </c>
-      <c r="C99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{C44700A6-7F76-434C-8DD3-7FA23A81C240}"/>
-    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{E3EB23F8-0296-4745-B451-F3E2620CDFA2}"/>
-    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{2606AD7B-CA23-4311-99BC-56B64B4C1464}"/>
-    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{8E83AE87-7E63-4540-A7B4-78CF7CEA3126}"/>
-    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{ACB4D1D6-EF6C-4A8E-BFFB-BC57D6BE6709}"/>
-    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{8D6AA4DF-58D1-4282-9373-4162BB66C72F}"/>
-    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{E8448F41-9D86-4436-94EF-CE8F8F502017}"/>
-    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{90787F68-954D-4ED3-A503-1A21D5705858}"/>
-    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{B6279BC3-07BA-4E46-AD20-B16FBA109BC7}"/>
+    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{95C8974E-1162-4288-9342-7B71C6732ECE}"/>
+    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{C92ED94E-8EFC-458E-A38B-FF2688C7C09C}"/>
+    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{1D866A08-F93C-410C-B68D-7A661299BB18}"/>
+    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{D30F26DA-9502-4585-A8FF-F169EE7C40C7}"/>
+    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{48D2A9BD-9C3E-4131-87EC-4AD400E59025}"/>
+    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{E4C629E1-3AE1-4D28-8A69-5F8B9BBF1D90}"/>
+    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{DFE17C82-E281-4D2B-821A-8EB943EBD8C2}"/>
+    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{98CE1872-2F2D-48B0-A021-BA3A2D5EB53C}"/>
+    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{41C45EAB-3902-4AD9-8E06-47B173719AA2}"/>
+    <hyperlink ref="A100" r:id="rId10" display="mailto:jianjun.x.gan@viivhealthcare.com" xr:uid="{7FE53171-AC64-46F8-BF64-2802440C1964}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId10"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="21585f8105577c55a14177137b0f487c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a739419b1432b2a493df12220e235f53" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -2934,24 +3020,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44DC42-D40D-4161-B416-680814B33C76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2967,4 +3051,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sengl\OneDrive\Dokumente\Webseiten\EIWG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1314935-C5B3-4AE7-B730-4C7C0C7E3407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D1314935-C5B3-4AE7-B730-4C7C0C7E3407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB172BE7-4E30-4871-B2C2-781F9936892E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="208">
   <si>
     <t>Name</t>
   </si>
@@ -542,9 +542,6 @@
     <t>Simon Newsome</t>
   </si>
   <si>
-    <t>USandCanada</t>
-  </si>
-  <si>
     <t>Alexandra Lauer</t>
   </si>
   <si>
@@ -554,12 +551,6 @@
     <t>BfArM</t>
   </si>
   <si>
-    <t>Na Xu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genetech/Roche </t>
-  </si>
-  <si>
     <t>Brian Wiens</t>
   </si>
   <si>
@@ -579,13 +570,103 @@
   </si>
   <si>
     <t>NorthAmerica</t>
+  </si>
+  <si>
+    <t>Amgen</t>
+  </si>
+  <si>
+    <t>Catherine Njue</t>
+  </si>
+  <si>
+    <t>Health Canada</t>
+  </si>
+  <si>
+    <t>Lisa Rodriguez</t>
+  </si>
+  <si>
+    <t>Frauke Friedrichs</t>
+  </si>
+  <si>
+    <t>Yankun Gong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfizer </t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Jiayu Fu</t>
+  </si>
+  <si>
+    <t>Zai Lab</t>
+  </si>
+  <si>
+    <t>Hongying Li</t>
+  </si>
+  <si>
+    <t>Jingjun Qiu</t>
+  </si>
+  <si>
+    <t>FosunPharma</t>
+  </si>
+  <si>
+    <t>Xue Yang</t>
+  </si>
+  <si>
+    <t>Leslie Meng</t>
+  </si>
+  <si>
+    <t>Alice Wang</t>
+  </si>
+  <si>
+    <t>Cui Xiong</t>
+  </si>
+  <si>
+    <t>Jiawei Wie</t>
+  </si>
+  <si>
+    <t>Wenting Li</t>
+  </si>
+  <si>
+    <t>dMed Biopharmaceutical Co.</t>
+  </si>
+  <si>
+    <t>Yuhan Huang</t>
+  </si>
+  <si>
+    <t>Chen Lu</t>
+  </si>
+  <si>
+    <t>Longshen Xie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brilliant Pharmaceutical </t>
+  </si>
+  <si>
+    <t>Xin Zhang</t>
+  </si>
+  <si>
+    <t>Zhiyue Huang</t>
+  </si>
+  <si>
+    <t>Wentian Guo</t>
+  </si>
+  <si>
+    <t>Zhiwei Jiang</t>
+  </si>
+  <si>
+    <t>KeyTech</t>
+  </si>
+  <si>
+    <t>Xiaoling Wei</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +688,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -630,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -638,6 +725,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -666,9 +755,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{650566AF-F73B-41F8-B217-CD1938D7378E}" name="Tabelle13" displayName="Tabelle13" ref="A1:P103" totalsRowShown="0">
-  <autoFilter ref="A1:P103" xr:uid="{650566AF-F73B-41F8-B217-CD1938D7378E}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{650566AF-F73B-41F8-B217-CD1938D7378E}" name="Tabelle13" displayName="Tabelle13" ref="A1:Q123" totalsRowShown="0">
+  <autoFilter ref="A1:Q123" xr:uid="{650566AF-F73B-41F8-B217-CD1938D7378E}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{97E2A29D-B888-411A-9C63-65873C8422D6}" name="Name"/>
     <tableColumn id="3" xr3:uid="{DF826309-7F45-4D14-88D8-48604C35E54D}" name="Company"/>
     <tableColumn id="4" xr3:uid="{44FE806B-64FC-4592-9F90-DBE6456CB90B}" name="Function"/>
@@ -685,6 +774,7 @@
     <tableColumn id="15" xr3:uid="{04E8C3B9-B9B2-4CD0-854E-49F114168874}" name="IntercurrentEvent"/>
     <tableColumn id="16" xr3:uid="{F50932B8-85A1-407E-9374-9C2B489EDB59}" name="NorthAmerica"/>
     <tableColumn id="17" xr3:uid="{410402E7-09C9-4FD0-A5A6-89870F81D0D1}" name="StudyDesign"/>
+    <tableColumn id="2" xr3:uid="{0C26DFAD-783E-44A9-8CF4-B30A9694B013}" name="China"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -990,10 +1080,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1011,7 +1101,7 @@
     <col min="13" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,13 +1145,16 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1095,7 +1188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1118,7 +1211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1147,7 +1240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1170,7 +1263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1187,7 +1280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1204,7 +1297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1221,7 +1314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1247,7 +1340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1264,7 +1357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1281,7 +1374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1295,7 +1388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1312,7 +1405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1329,7 +1422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1609,7 +1702,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -2446,7 +2539,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -2557,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E86" t="s">
         <v>17</v>
@@ -2568,13 +2661,16 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>177</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
@@ -2585,16 +2681,13 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
-      </c>
-      <c r="D88" t="s">
-        <v>168</v>
       </c>
       <c r="E88" t="s">
         <v>17</v>
@@ -2608,7 +2701,7 @@
         <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
         <v>16</v>
@@ -2739,7 +2832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>165</v>
       </c>
@@ -2756,47 +2849,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" t="s">
         <v>172</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="O98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>173</v>
       </c>
-      <c r="C98" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" t="s">
-        <v>17</v>
-      </c>
-      <c r="O98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
         <v>174</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="O99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>175</v>
       </c>
-      <c r="C99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" t="s">
-        <v>17</v>
-      </c>
-      <c r="O99" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
         <v>176</v>
       </c>
-      <c r="B100" t="s">
-        <v>177</v>
-      </c>
       <c r="C100" t="s">
         <v>16</v>
       </c>
@@ -2807,66 +2900,410 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="O101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>181</v>
+      </c>
+      <c r="B102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
+      </c>
+      <c r="O102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
+        <v>28</v>
+      </c>
+      <c r="P103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>168</v>
+      </c>
+      <c r="B104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>28</v>
+      </c>
+      <c r="J105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" t="s">
+        <v>145</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>194</v>
+      </c>
+      <c r="B113" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B114" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>185</v>
+      </c>
+      <c r="E114" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>196</v>
+      </c>
+      <c r="B115" t="s">
+        <v>197</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" t="s">
         <v>178</v>
       </c>
-      <c r="B101" t="s">
-        <v>179</v>
-      </c>
-      <c r="C101" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" t="s">
-        <v>17</v>
-      </c>
-      <c r="O101" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>167</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>202</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>203</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B123" t="s">
         <v>82</v>
       </c>
-      <c r="C102" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" t="s">
-        <v>28</v>
-      </c>
-      <c r="P102" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>169</v>
-      </c>
-      <c r="B103" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" t="s">
-        <v>17</v>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{95C8974E-1162-4288-9342-7B71C6732ECE}"/>
-    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{C92ED94E-8EFC-458E-A38B-FF2688C7C09C}"/>
-    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{1D866A08-F93C-410C-B68D-7A661299BB18}"/>
-    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{D30F26DA-9502-4585-A8FF-F169EE7C40C7}"/>
-    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{48D2A9BD-9C3E-4131-87EC-4AD400E59025}"/>
-    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{E4C629E1-3AE1-4D28-8A69-5F8B9BBF1D90}"/>
-    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{DFE17C82-E281-4D2B-821A-8EB943EBD8C2}"/>
-    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{98CE1872-2F2D-48B0-A021-BA3A2D5EB53C}"/>
-    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{41C45EAB-3902-4AD9-8E06-47B173719AA2}"/>
-    <hyperlink ref="A100" r:id="rId10" display="mailto:jianjun.x.gan@viivhealthcare.com" xr:uid="{7FE53171-AC64-46F8-BF64-2802440C1964}"/>
+    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{FB9FB9F1-4FE7-4D6B-892A-E29F7A3CD340}"/>
+    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{A4400BF0-B26C-4D72-AF33-EAD4F4892BA1}"/>
+    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{74FEEE00-8A10-4A85-B6D1-0EFEF911206C}"/>
+    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{EC1D5A40-DA25-46BD-8458-A412544761A1}"/>
+    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{7361DBBB-B216-4610-9D39-6F8372A2392C}"/>
+    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{7D7430F3-A109-4CB7-96DE-7B5D38239B66}"/>
+    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{C5522C3C-8F7F-4FC2-A90A-2C7E9D1350C6}"/>
+    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{257648D5-A168-4D4D-A4E7-EF82A200E56E}"/>
+    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{DEBF35AA-791C-42E7-85C5-37AF47CEF6D0}"/>
+    <hyperlink ref="A99" r:id="rId10" display="mailto:jianjun.x.gan@viivhealthcare.com" xr:uid="{B96CBE9F-BF0C-4A88-97F6-0D8ACD88BADA}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId11"/>
@@ -2877,6 +3314,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="21585f8105577c55a14177137b0f487c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a739419b1432b2a493df12220e235f53" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -3020,22 +3472,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44DC42-D40D-4161-B416-680814B33C76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3051,21 +3505,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D1314935-C5B3-4AE7-B730-4C7C0C7E3407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB172BE7-4E30-4871-B2C2-781F9936892E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D1314935-C5B3-4AE7-B730-4C7C0C7E3407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC828BE1-F4C4-405F-85B2-58AE20191D65}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,8 +1082,8 @@
   </sheetPr>
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1178,9 +1178,6 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -2243,9 +2240,7 @@
       <c r="C63" t="s">
         <v>16</v>
       </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
+      <c r="D63" s="6"/>
       <c r="E63" t="s">
         <v>17</v>
       </c>
@@ -2598,6 +2593,9 @@
       <c r="C83" t="s">
         <v>16</v>
       </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
       <c r="E83" t="s">
         <v>28</v>
       </c>
@@ -2615,6 +2613,9 @@
       <c r="C84" t="s">
         <v>16</v>
       </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
       <c r="E84" t="s">
         <v>28</v>
       </c>
@@ -2992,7 +2993,6 @@
       <c r="C106" t="s">
         <v>16</v>
       </c>
-      <c r="D106" s="6"/>
       <c r="E106" t="s">
         <v>17</v>
       </c>
@@ -3314,21 +3314,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="21585f8105577c55a14177137b0f487c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a739419b1432b2a493df12220e235f53" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -3472,24 +3457,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44DC42-D40D-4161-B416-680814B33C76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3505,4 +3488,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e85c81c27d35d093/Dokumente/Webseiten/EIWG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D1314935-C5B3-4AE7-B730-4C7C0C7E3407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC828BE1-F4C4-405F-85B2-58AE20191D65}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D1314935-C5B3-4AE7-B730-4C7C0C7E3407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90CF7B47-791F-450C-963E-15F51F27D076}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="208">
   <si>
     <t>Name</t>
   </si>
@@ -128,9 +128,6 @@
     <t xml:space="preserve">Antonio Remiro-Azocar </t>
   </si>
   <si>
-    <t xml:space="preserve">Frank Kleinjung </t>
-  </si>
-  <si>
     <t>James Bell</t>
   </si>
   <si>
@@ -455,21 +452,12 @@
     <t>Biogen</t>
   </si>
   <si>
-    <t>Hookipapharma</t>
-  </si>
-  <si>
     <t>Disclosure Manager</t>
   </si>
   <si>
     <t>Disclosure Manager + Medical Writing</t>
   </si>
   <si>
-    <t xml:space="preserve">Arthur Alignol </t>
-  </si>
-  <si>
-    <t>Daichi Sankio</t>
-  </si>
-  <si>
     <t>Tatsiana Vaitsiakhovich</t>
   </si>
   <si>
@@ -660,6 +648,18 @@
   </si>
   <si>
     <t>Xiaoling Wei</t>
+  </si>
+  <si>
+    <t>Alessandro Ghiretti</t>
+  </si>
+  <si>
+    <t>Daiichi Sankyo</t>
+  </si>
+  <si>
+    <t>Matthew Knowles</t>
+  </si>
+  <si>
+    <t>Ilse Van Dromme</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -726,13 +726,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -754,14 +771,18 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{650566AF-F73B-41F8-B217-CD1938D7378E}" name="Tabelle13" displayName="Tabelle13" ref="A1:Q123" totalsRowShown="0">
-  <autoFilter ref="A1:Q123" xr:uid="{650566AF-F73B-41F8-B217-CD1938D7378E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{650566AF-F73B-41F8-B217-CD1938D7378E}" name="Tabelle13" displayName="Tabelle13" ref="A1:Q124" totalsRowShown="0">
+  <autoFilter ref="A1:Q124" xr:uid="{650566AF-F73B-41F8-B217-CD1938D7378E}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{97E2A29D-B888-411A-9C63-65873C8422D6}" name="Name"/>
+    <tableColumn id="1" xr3:uid="{97E2A29D-B888-411A-9C63-65873C8422D6}" name="Name" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DF826309-7F45-4D14-88D8-48604C35E54D}" name="Company"/>
     <tableColumn id="4" xr3:uid="{44FE806B-64FC-4592-9F90-DBE6456CB90B}" name="Function"/>
-    <tableColumn id="5" xr3:uid="{A6AABD66-8F19-4EAF-A0DD-F4FAF5BB0696}" name="Lead" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{A6AABD66-8F19-4EAF-A0DD-F4FAF5BB0696}" name="Lead" dataDxfId="1"/>
     <tableColumn id="13" xr3:uid="{5A7BDB31-8DD4-45EA-B9DF-9FC82A30EB51}" name="Type"/>
     <tableColumn id="6" xr3:uid="{66CD400B-3B58-4C16-89AC-DEED83CDD2DF}" name="Contact to"/>
     <tableColumn id="7" xr3:uid="{E278C033-C1AC-41AA-B3B4-D52FDAD8BBE4}" name="Training"/>
@@ -1080,10 +1101,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,13 +1166,13 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1190,7 +1211,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1200,9 +1221,6 @@
       </c>
       <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
@@ -1242,7 +1260,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1282,7 +1300,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1299,15 +1317,24 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1316,24 +1343,15 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1342,63 +1360,63 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1407,78 +1425,78 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
       </c>
       <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
       <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1487,7 +1505,7 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1495,7 +1513,7 @@
       <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="L19" t="s">
+      <c r="H19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1504,49 +1522,49 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="P22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1555,81 +1573,78 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
       <c r="E25" t="s">
         <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>152</v>
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
       <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
@@ -1637,27 +1652,30 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
@@ -1668,13 +1686,10 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -1682,50 +1697,53 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>71</v>
-      </c>
-      <c r="N32" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
         <v>72</v>
       </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -1733,86 +1751,89 @@
         <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="B38" t="s">
-        <v>82</v>
-      </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1821,51 +1842,45 @@
         <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
       <c r="E39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
         <v>20</v>
       </c>
       <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="B40" t="s">
-        <v>85</v>
-      </c>
       <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
-      </c>
-      <c r="F40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N40" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -1873,13 +1888,16 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -1887,15 +1905,15 @@
         <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1904,30 +1922,27 @@
         <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -1935,10 +1950,10 @@
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
         <v>17</v>
@@ -1946,16 +1961,28 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
       </c>
       <c r="E46" t="s">
         <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1963,25 +1990,13 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1989,30 +2004,30 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>97</v>
       </c>
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
@@ -2020,13 +2035,16 @@
         <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
+      </c>
+      <c r="L50" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
@@ -2034,16 +2052,13 @@
         <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
       </c>
       <c r="E51" t="s">
         <v>28</v>
-      </c>
-      <c r="L51" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -2051,13 +2066,16 @@
         <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
       </c>
       <c r="E52" t="s">
         <v>28</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
@@ -2065,7 +2083,7 @@
         <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -2073,7 +2091,7 @@
       <c r="E53" t="s">
         <v>28</v>
       </c>
-      <c r="H53" t="s">
+      <c r="L53" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2082,16 +2100,13 @@
         <v>103</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E54" t="s">
         <v>28</v>
-      </c>
-      <c r="L54" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
@@ -2099,21 +2114,24 @@
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
         <v>28</v>
+      </c>
+      <c r="L55" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
         <v>105</v>
-      </c>
-      <c r="B56" t="s">
-        <v>106</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -2130,50 +2148,47 @@
         <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
-      </c>
-      <c r="L57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
       </c>
       <c r="E58" t="s">
         <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
         <v>110</v>
       </c>
-      <c r="B59" t="s">
-        <v>111</v>
-      </c>
       <c r="C59" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
         <v>17</v>
-      </c>
-      <c r="I59" t="s">
-        <v>20</v>
-      </c>
-      <c r="N59" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
@@ -2181,35 +2196,38 @@
         <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
       </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
       <c r="E60" t="s">
         <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
         <v>113</v>
       </c>
-      <c r="B61" t="s">
-        <v>114</v>
-      </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
       <c r="E61" t="s">
         <v>17</v>
       </c>
-      <c r="L61" t="s">
-        <v>20</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="P61" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2218,7 +2236,7 @@
         <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -2226,7 +2244,7 @@
       <c r="E62" t="s">
         <v>17</v>
       </c>
-      <c r="P62" t="s">
+      <c r="K62" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2235,16 +2253,15 @@
         <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="6"/>
       <c r="E63" t="s">
         <v>17</v>
       </c>
-      <c r="K63" t="s">
+      <c r="J63" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2253,15 +2270,21 @@
         <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
       </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
       <c r="E64" t="s">
         <v>17</v>
       </c>
       <c r="J64" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2270,30 +2293,27 @@
         <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
       </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
       <c r="E65" t="s">
         <v>17</v>
       </c>
       <c r="J65" t="s">
         <v>20</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -2301,56 +2321,53 @@
       <c r="E66" t="s">
         <v>17</v>
       </c>
-      <c r="J66" t="s">
-        <v>20</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="G66" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
+        <v>28</v>
+      </c>
+      <c r="N67" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
         <v>28</v>
       </c>
-      <c r="N68" t="s">
+      <c r="J68" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+      <c r="A69" t="s">
         <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
         <v>28</v>
@@ -2364,16 +2381,13 @@
         <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
       </c>
       <c r="E70" t="s">
         <v>28</v>
-      </c>
-      <c r="J70" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
@@ -2381,29 +2395,38 @@
         <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="E71" t="s">
         <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2412,21 +2435,15 @@
         <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="I73" t="s">
-        <v>20</v>
-      </c>
-      <c r="P73" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2435,10 +2452,10 @@
         <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
         <v>28</v>
@@ -2449,13 +2466,13 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" t="s">
         <v>130</v>
       </c>
-      <c r="B75" t="s">
-        <v>131</v>
-      </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E75" t="s">
         <v>28</v>
@@ -2469,10 +2486,10 @@
         <v>132</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s">
         <v>28</v>
@@ -2486,13 +2503,13 @@
         <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I77" t="s">
         <v>20</v>
@@ -2500,52 +2517,52 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2554,10 +2571,13 @@
         <v>142</v>
       </c>
       <c r="B81" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
       </c>
       <c r="E81" t="s">
         <v>28</v>
@@ -2568,13 +2588,16 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
       </c>
       <c r="E82" t="s">
         <v>28</v>
@@ -2585,21 +2608,18 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="E83" t="s">
         <v>28</v>
       </c>
-      <c r="K83" t="s">
+      <c r="I83" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2608,50 +2628,50 @@
         <v>147</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="E84" t="s">
-        <v>28</v>
-      </c>
-      <c r="K84" t="s">
+        <v>17</v>
+      </c>
+      <c r="O84" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>173</v>
       </c>
       <c r="E85" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="O85" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
         <v>16</v>
-      </c>
-      <c r="D86" t="s">
-        <v>177</v>
       </c>
       <c r="E86" t="s">
         <v>17</v>
@@ -2662,16 +2682,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
-      </c>
-      <c r="D87" t="s">
-        <v>177</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
@@ -2682,10 +2699,10 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -2699,10 +2716,10 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C89" t="s">
         <v>16</v>
@@ -2716,10 +2733,10 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
         <v>16</v>
@@ -2733,10 +2750,10 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C91" t="s">
         <v>16</v>
@@ -2750,10 +2767,10 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
         <v>16</v>
@@ -2767,10 +2784,10 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
         <v>16</v>
@@ -2784,10 +2801,10 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="C94" t="s">
         <v>16</v>
@@ -2804,7 +2821,7 @@
         <v>161</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -2818,10 +2835,10 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
@@ -2835,10 +2852,10 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
@@ -2869,10 +2886,10 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
@@ -2886,10 +2903,10 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
         <v>16</v>
@@ -2903,27 +2920,27 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>17</v>
-      </c>
-      <c r="O101" t="s">
+        <v>28</v>
+      </c>
+      <c r="P101" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
         <v>16</v>
@@ -2931,16 +2948,16 @@
       <c r="E102" t="s">
         <v>17</v>
       </c>
-      <c r="O102" t="s">
+      <c r="K102" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C103" t="s">
         <v>16</v>
@@ -2948,16 +2965,16 @@
       <c r="E103" t="s">
         <v>28</v>
       </c>
-      <c r="P103" t="s">
+      <c r="J103" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>168</v>
-      </c>
-      <c r="B104" t="s">
-        <v>145</v>
+      <c r="A104" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="C104" t="s">
         <v>16</v>
@@ -2965,30 +2982,33 @@
       <c r="E104" t="s">
         <v>17</v>
       </c>
+      <c r="Q104" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="A105" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="C105" t="s">
         <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
-      </c>
-      <c r="J105" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q105" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B106" s="5" t="s">
         <v>184</v>
+      </c>
+      <c r="B106" t="s">
+        <v>62</v>
       </c>
       <c r="C106" t="s">
         <v>16</v>
@@ -3002,10 +3022,10 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="B107" t="s">
-        <v>187</v>
       </c>
       <c r="C107" t="s">
         <v>16</v>
@@ -3019,44 +3039,44 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>188</v>
       </c>
-      <c r="B108" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
+      <c r="B109" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C109" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>152</v>
+      <c r="B110" t="s">
+        <v>24</v>
       </c>
       <c r="C110" t="s">
         <v>16</v>
@@ -3070,10 +3090,10 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B111" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
         <v>16</v>
@@ -3087,13 +3107,16 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C112" t="s">
         <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>181</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
@@ -3104,10 +3127,10 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
         <v>16</v>
@@ -3121,115 +3144,112 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B114" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" t="s">
-        <v>185</v>
-      </c>
-      <c r="E114" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>197</v>
       </c>
-      <c r="C115" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>198</v>
       </c>
-      <c r="B116" t="s">
-        <v>152</v>
-      </c>
-      <c r="C116" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
+      <c r="B117" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>199</v>
       </c>
-      <c r="B117" t="s">
-        <v>178</v>
-      </c>
-      <c r="C117" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
+      <c r="B118" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C118" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="B120" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C119" t="s">
-        <v>16</v>
-      </c>
-      <c r="E119" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -3243,10 +3263,10 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
@@ -3260,50 +3280,67 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B122" t="s">
         <v>205</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="C122" t="s">
         <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q122" t="s">
+        <v>28</v>
+      </c>
+      <c r="K122" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" t="s">
+        <v>28</v>
+      </c>
+      <c r="K123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B123" t="s">
-        <v>82</v>
-      </c>
-      <c r="C123" t="s">
-        <v>16</v>
-      </c>
-      <c r="E123" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q123" t="s">
+      <c r="B124" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" t="s">
+        <v>28</v>
+      </c>
+      <c r="K124" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A60" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{FB9FB9F1-4FE7-4D6B-892A-E29F7A3CD340}"/>
-    <hyperlink ref="A32" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{A4400BF0-B26C-4D72-AF33-EAD4F4892BA1}"/>
-    <hyperlink ref="A47" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{74FEEE00-8A10-4A85-B6D1-0EFEF911206C}"/>
-    <hyperlink ref="A58" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{EC1D5A40-DA25-46BD-8458-A412544761A1}"/>
-    <hyperlink ref="A14" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{7361DBBB-B216-4610-9D39-6F8372A2392C}"/>
-    <hyperlink ref="A22" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{7D7430F3-A109-4CB7-96DE-7B5D38239B66}"/>
-    <hyperlink ref="A12" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{C5522C3C-8F7F-4FC2-A90A-2C7E9D1350C6}"/>
-    <hyperlink ref="A21" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{257648D5-A168-4D4D-A4E7-EF82A200E56E}"/>
-    <hyperlink ref="A65" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{DEBF35AA-791C-42E7-85C5-37AF47CEF6D0}"/>
-    <hyperlink ref="A99" r:id="rId10" display="mailto:jianjun.x.gan@viivhealthcare.com" xr:uid="{B96CBE9F-BF0C-4A88-97F6-0D8ACD88BADA}"/>
+    <hyperlink ref="A59" r:id="rId1" display="mailto:Katsumi.Yoshida@ucb.com" xr:uid="{AD08391F-3F27-4BAB-B3CA-FAD4219C74FB}"/>
+    <hyperlink ref="A31" r:id="rId2" display="mailto:Armin.Schueler@merckgroup.com" xr:uid="{FB4A5F2A-36D0-43FF-8E86-BC1FDA6D1D6D}"/>
+    <hyperlink ref="A46" r:id="rId3" display="mailto:Sue.McKendrick@ppdi.com" xr:uid="{DE8DF6B5-533F-4E12-B663-0DC5B3468A5B}"/>
+    <hyperlink ref="A57" r:id="rId4" display="mailto:estelle.lambert@servier.com" xr:uid="{651C634A-99D2-42A8-BB08-FD8205D37AC1}"/>
+    <hyperlink ref="A13" r:id="rId5" display="mailto:Lorenzo.Guizzaro@ema.europa.eu" xr:uid="{C2849AD9-061A-49AD-9B46-1F76360B127A}"/>
+    <hyperlink ref="A21" r:id="rId6" display="mailto:oliverkeene405@gmail.com" xr:uid="{20FEF294-7B67-4A68-9F37-488C17101DEC}"/>
+    <hyperlink ref="A11" r:id="rId7" display="mailto:s.vezzoli@chiesi.com" xr:uid="{59FACA81-FC0A-48B9-9BBF-5AA75FA20B6C}"/>
+    <hyperlink ref="A20" r:id="rId8" display="mailto:carrie.li@idorsia.com" xr:uid="{324A16D9-7045-4977-92A4-5CD67D6BD979}"/>
+    <hyperlink ref="A64" r:id="rId9" display="mailto:chun-hang.x.tang@gsk.com" xr:uid="{C442D243-F2D4-4809-9C20-7E0E35C1AC02}"/>
+    <hyperlink ref="A97" r:id="rId10" display="mailto:jianjun.x.gan@viivhealthcare.com" xr:uid="{E8FCEFA5-0BC1-4855-AE3E-225FED9844AA}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId11"/>
@@ -3314,6 +3351,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C2547C8CC7B331428FF953FE0CD11F32" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="21585f8105577c55a14177137b0f487c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe6cebb0-ac24-4097-a45b-aec9fe749aaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a739419b1432b2a493df12220e235f53" ns2:_="">
     <xsd:import namespace="fe6cebb0-ac24-4097-a45b-aec9fe749aaa"/>
@@ -3457,22 +3509,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E44DC42-D40D-4161-B416-680814B33C76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3488,21 +3542,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1288C358-E90E-46A5-8B49-D40D5385BECC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5478ECA-E19E-4E78-97DE-7171B34BD30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>